--- a/data/trans_orig/CONS_COR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en País Vasco</t>
+          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en Andalucia</t>
+          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en C.Valenciana</t>
+          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_COR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12476</t>
+          <t>11617</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9793</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15873</t>
+          <t>14410</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16940</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13902</t>
+          <t>13607</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20939</t>
+          <t>19811</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>29417</t>
+          <t>28187</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>25106</t>
+          <t>24226</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34084</t>
+          <t>32397</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,88%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75588</t>
+          <t>70925</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72191</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78271</t>
+          <t>73374</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>110804</t>
+          <t>104882</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>106805</t>
+          <t>101641</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>113842</t>
+          <t>107845</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>186392</t>
+          <t>175807</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>181725</t>
+          <t>171597</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>190703</t>
+          <t>179768</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>88,12%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42722</t>
+          <t>41851</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37617</t>
+          <t>37083</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48460</t>
+          <t>47490</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23188</t>
+          <t>24259</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19748</t>
+          <t>20579</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27867</t>
+          <t>28759</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>65910</t>
+          <t>66110</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>59252</t>
+          <t>60020</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73043</t>
+          <t>73220</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,08%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>410769</t>
+          <t>419828</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>405031</t>
+          <t>414189</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>415874</t>
+          <t>424596</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>408614</t>
+          <t>420098</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>403935</t>
+          <t>415598</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>412054</t>
+          <t>423778</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>819383</t>
+          <t>839925</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>812250</t>
+          <t>832815</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>826041</t>
+          <t>846015</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>93,38%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8766</t>
+          <t>8399</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6467</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11596</t>
+          <t>11089</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5305</t>
+          <t>5303</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12302</t>
+          <t>11918</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9594</t>
+          <t>9284</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15365</t>
+          <t>15250</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>142859</t>
+          <t>167162</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>140029</t>
+          <t>164472</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>145158</t>
+          <t>169312</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>190701</t>
+          <t>224475</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>188932</t>
+          <t>222691</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>191898</t>
+          <t>225786</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>333561</t>
+          <t>391637</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>330498</t>
+          <t>388305</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>336269</t>
+          <t>394271</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63964</t>
+          <t>61867</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57791</t>
+          <t>55732</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70743</t>
+          <t>68436</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43664</t>
+          <t>44349</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38517</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49028</t>
+          <t>49946</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>107628</t>
+          <t>106215</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>99332</t>
+          <t>98803</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>116903</t>
+          <t>115889</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>629217</t>
+          <t>657914</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>622438</t>
+          <t>651345</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>635390</t>
+          <t>664049</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>710120</t>
+          <t>749454</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>704756</t>
+          <t>743857</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>715267</t>
+          <t>754840</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1339337</t>
+          <t>1407369</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1330062</t>
+          <t>1397695</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1347633</t>
+          <t>1414781</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,47%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26767</t>
+          <t>26381</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45414</t>
+          <t>45384</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>47717</t>
+          <t>47289</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>70047</t>
+          <t>68497</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>80127</t>
+          <t>79680</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>109366</t>
+          <t>107140</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,19%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>182883</t>
+          <t>182913</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>201530</t>
+          <t>201916</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>325043</t>
+          <t>326593</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>347373</t>
+          <t>347801</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>514021</t>
+          <t>516247</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>543260</t>
+          <t>543707</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>87,22%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30382</t>
+          <t>28241</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73320</t>
+          <t>73207</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18415</t>
+          <t>16613</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44102</t>
+          <t>42916</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58276</t>
+          <t>59649</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>109118</t>
+          <t>108840</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1336073</t>
+          <t>1336186</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1379011</t>
+          <t>1381152</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1341709</t>
+          <t>1342895</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1367396</t>
+          <t>1369198</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2686086</t>
+          <t>2686364</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2736928</t>
+          <t>2735555</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14255</t>
+          <t>13793</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29363</t>
+          <t>28804</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5342</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16691</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22045</t>
+          <t>22029</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40125</t>
+          <t>39741</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>430438</t>
+          <t>430997</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>445546</t>
+          <t>446008</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>426683</t>
+          <t>427214</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>438032</t>
+          <t>438192</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>863050</t>
+          <t>863434</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881130</t>
+          <t>881146</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71686</t>
+          <t>75190</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>135828</t>
+          <t>136507</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>69495</t>
+          <t>70300</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>117453</t>
+          <t>117642</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>161293</t>
+          <t>166260</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>243509</t>
+          <t>242679</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1961663</t>
+          <t>1960984</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2025805</t>
+          <t>2022301</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2106823</t>
+          <t>2106634</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2154781</t>
+          <t>2153976</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4078257</t>
+          <t>4079087</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4160473</t>
+          <t>4155506</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,15%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_COR-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11617</t>
+          <t>38071</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9168</t>
+          <t>28996</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14410</t>
+          <t>48889</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16570</t>
+          <t>64722</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13607</t>
+          <t>52866</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19811</t>
+          <t>76492</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>28187</t>
+          <t>102794</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24226</t>
+          <t>88239</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32397</t>
+          <t>118515</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70925</t>
+          <t>217321</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68132</t>
+          <t>206503</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73374</t>
+          <t>226396</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>589</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>104882</t>
+          <t>367875</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>101641</t>
+          <t>356105</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>107845</t>
+          <t>379731</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>828</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>175807</t>
+          <t>585195</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>171597</t>
+          <t>569474</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>179768</t>
+          <t>599750</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>87,17%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41851</t>
+          <t>59051</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37083</t>
+          <t>46449</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47490</t>
+          <t>74894</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24259</t>
+          <t>34842</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20579</t>
+          <t>25882</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28759</t>
+          <t>48790</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>124</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>66110</t>
+          <t>93893</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>60020</t>
+          <t>79121</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73220</t>
+          <t>111644</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>419828</t>
+          <t>1228636</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>414189</t>
+          <t>1212793</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>424596</t>
+          <t>1241238</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>420098</t>
+          <t>1235899</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>415598</t>
+          <t>1221951</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>423778</t>
+          <t>1244859</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>2626</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>839925</t>
+          <t>2464535</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>832815</t>
+          <t>2446784</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>846015</t>
+          <t>2479307</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>96,91%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8399</t>
+          <t>22895</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>15787</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11089</t>
+          <t>31853</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3519</t>
+          <t>10736</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>6346</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5303</t>
+          <t>17127</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11918</t>
+          <t>33631</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9284</t>
+          <t>24966</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15250</t>
+          <t>44064</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>167162</t>
+          <t>486984</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>164472</t>
+          <t>478026</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>169312</t>
+          <t>494092</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>224475</t>
+          <t>485170</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>222691</t>
+          <t>478779</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>225786</t>
+          <t>489560</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>391637</t>
+          <t>972155</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>388305</t>
+          <t>961722</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>394271</t>
+          <t>980820</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,52%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61867</t>
+          <t>120017</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55732</t>
+          <t>102078</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68436</t>
+          <t>141421</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44349</t>
+          <t>110301</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>94066</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49946</t>
+          <t>127652</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>329</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>106215</t>
+          <t>230318</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>98803</t>
+          <t>206004</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>115889</t>
+          <t>258106</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>657914</t>
+          <t>1932942</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>651345</t>
+          <t>1911538</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>664049</t>
+          <t>1950881</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>749454</t>
+          <t>2088943</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>743857</t>
+          <t>2071592</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>754840</t>
+          <t>2105178</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7871</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1407369</t>
+          <t>4021885</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1397695</t>
+          <t>3994097</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1414781</t>
+          <t>4046199</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>95,16%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35145</t>
+          <t>33400</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26381</t>
+          <t>26583</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45384</t>
+          <t>39806</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57998</t>
+          <t>48799</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>47289</t>
+          <t>40359</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>68497</t>
+          <t>57684</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>234</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>93143</t>
+          <t>82200</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>79680</t>
+          <t>71829</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>107140</t>
+          <t>93212</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>19,04%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>193152</t>
+          <t>182396</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>182913</t>
+          <t>175990</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>201916</t>
+          <t>189213</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,12%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>520</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>337092</t>
+          <t>224882</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>326593</t>
+          <t>215997</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>347801</t>
+          <t>233322</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>85,25%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>530244</t>
+          <t>407278</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>516247</t>
+          <t>396266</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>543707</t>
+          <t>417649</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>80,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>85,33%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54939</t>
+          <t>44295</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28241</t>
+          <t>36750</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73207</t>
+          <t>54432</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30196</t>
+          <t>31244</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16613</t>
+          <t>24303</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42916</t>
+          <t>40402</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>186</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>85135</t>
+          <t>75540</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>59649</t>
+          <t>64739</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>108840</t>
+          <t>88374</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1354454</t>
+          <t>817723</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1336186</t>
+          <t>807586</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1381152</t>
+          <t>825268</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1355615</t>
+          <t>836936</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1342895</t>
+          <t>827778</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1369198</t>
+          <t>843877</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2710069</t>
+          <t>1654658</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2686364</t>
+          <t>1641824</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2735555</t>
+          <t>1665459</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>96,26%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,37 +3027,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20692</t>
+          <t>10102</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13793</t>
+          <t>6584</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28804</t>
+          <t>14586</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3067,67 +3067,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>7659</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5182</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16160</t>
+          <t>13413</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>29953</t>
+          <t>17760</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22029</t>
+          <t>12948</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39741</t>
+          <t>24431</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>626</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>439109</t>
+          <t>368451</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>430997</t>
+          <t>363967</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>446008</t>
+          <t>371969</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>683</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>434113</t>
+          <t>409216</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>427214</t>
+          <t>403462</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>438192</t>
+          <t>412546</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>873222</t>
+          <t>777668</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>863434</t>
+          <t>770997</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881146</t>
+          <t>782480</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>98,37%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>110776</t>
+          <t>87797</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75190</t>
+          <t>76809</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>136507</t>
+          <t>99546</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87702</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>75646</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>100716</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>175499</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>159260</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>194332</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
           <t>5,28%</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>97456</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>70300</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>117642</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>208232</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>166260</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>242679</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>2588</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1986715</t>
+          <t>1368570</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1960984</t>
+          <t>1356821</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2022301</t>
+          <t>1379558</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>93,97%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>93,16%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2657</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1471035</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1458021</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1483091</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>94,37%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>93,54%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>95,15%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2839605</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2820772</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2855844</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>94,18%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>93,55%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
           <t>94,72%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>93,49%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>96,42%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2824</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2126820</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2106634</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2153976</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>95,62%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>94,71%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>96,84%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>4113534</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>4079087</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>4155506</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>95,18%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>94,38%</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>96,15%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33400</t>
+          <t>11617</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26583</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39806</t>
+          <t>14410</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>48799</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40359</t>
+          <t>13607</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57684</t>
+          <t>19811</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>179</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>82200</t>
+          <t>28187</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>71829</t>
+          <t>24226</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>93212</t>
+          <t>32397</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>15,88%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>182396</t>
+          <t>70925</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>175990</t>
+          <t>68132</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>189213</t>
+          <t>73374</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>653</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>224882</t>
+          <t>104882</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>215997</t>
+          <t>101641</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>233322</t>
+          <t>107845</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>85,25%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>407278</t>
+          <t>175807</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>396266</t>
+          <t>171597</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>417649</t>
+          <t>179768</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>88,12%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44295</t>
+          <t>41851</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36750</t>
+          <t>37083</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54432</t>
+          <t>47490</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31244</t>
+          <t>24259</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24303</t>
+          <t>20579</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40402</t>
+          <t>28759</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>387</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>75540</t>
+          <t>66110</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>64739</t>
+          <t>60020</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>88374</t>
+          <t>73220</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>8,08%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>817723</t>
+          <t>419828</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>807586</t>
+          <t>414189</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>825268</t>
+          <t>424596</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>836936</t>
+          <t>420098</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>827778</t>
+          <t>415598</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>843877</t>
+          <t>423778</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1654658</t>
+          <t>839925</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1641824</t>
+          <t>832815</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1665459</t>
+          <t>846015</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>93,38%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10102</t>
+          <t>8399</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6584</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14586</t>
+          <t>11089</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7659</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13413</t>
+          <t>5303</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17760</t>
+          <t>11918</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12948</t>
+          <t>9284</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24431</t>
+          <t>15250</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>853</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>368451</t>
+          <t>167162</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>363967</t>
+          <t>164472</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>371969</t>
+          <t>169312</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>409216</t>
+          <t>224475</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>403462</t>
+          <t>222691</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>412546</t>
+          <t>225786</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>777668</t>
+          <t>391637</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>770997</t>
+          <t>388305</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>782480</t>
+          <t>394271</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87797</t>
+          <t>61867</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76809</t>
+          <t>55732</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>99546</t>
+          <t>68436</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87702</t>
+          <t>44349</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>75646</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>100716</t>
+          <t>49946</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>643</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>175499</t>
+          <t>106215</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>159260</t>
+          <t>98803</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>194332</t>
+          <t>115889</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1368570</t>
+          <t>657914</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1356821</t>
+          <t>651345</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1379558</t>
+          <t>664049</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1471035</t>
+          <t>749454</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1458021</t>
+          <t>743857</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1483091</t>
+          <t>754840</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2839605</t>
+          <t>1407369</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2820772</t>
+          <t>1397695</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2855844</t>
+          <t>1414781</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>93,47%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
